--- a/biology/Botanique/Vallée_de_la_Marne_(vignoble)/Vallée_de_la_Marne_(vignoble).xlsx
+++ b/biology/Botanique/Vallée_de_la_Marne_(vignoble)/Vallée_de_la_Marne_(vignoble).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vall%C3%A9e_de_la_Marne_(vignoble)</t>
+          <t>Vallée_de_la_Marne_(vignoble)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble de la Vallée de la Marne est une zone viticole destinée au champagne. Ce vignoble peut être séparé en secteurs distincts qui sont la Vallée de la Marne Ouest et la Vallée de la Marne Est. La superficie cumulée de ces secteurs avoisine les 8 000 hectares.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vall%C3%A9e_de_la_Marne_(vignoble)</t>
+          <t>Vallée_de_la_Marne_(vignoble)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,86 @@
           <t>Route touristique du Champagne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dominant souvent la Vallée, cet itinéraire offre de splendides points de vue et vous ouvre les portes de son riche patrimoine. 
 Vallée de la Marne Ouest : la plus proche de Paris, sortie n° 19 de l'autoroute A4 commencer par Montreuil-aux-Lions, suivre la rive gauche de la Marne, emprunter la vallée du Surmelin jusqu'à Baulne-en-Brie et poursuivre par la rive droite via Trélou-sur-Marne.
 Vallée de la Marne Est : Au départ d'Épernay, suivre la rive droite de la Marne, et retour par la rive gauche.
-Cette route possède l'avantage de se trouver proche de Paris et à cheval sur deux régions ; L'extrême Sud de la Picardie et l'Ouest de la région Champagne Ardenne et deux départements; le "bas de l'Aisne" et la Marne.
-Accès
-À 65 km de Paris par Autoroute A4, sortie n° 19 Montreuil-aux-Lions ou 80 km sortie n° 20 à Château-Thierry.
-Principaux villages traversés (Vallée de la Marne Ouest)
-Charly-sur-Marne
+Cette route possède l'avantage de se trouver proche de Paris et à cheval sur deux régions ; L'extrême Sud de la Picardie et l'Ouest de la région Champagne Ardenne et deux départements; le "bas de l'Aisne" et la Marne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vallée_de_la_Marne_(vignoble)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vall%C3%A9e_de_la_Marne_(vignoble)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Route touristique du Champagne</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Accès</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À 65 km de Paris par Autoroute A4, sortie n° 19 Montreuil-aux-Lions ou 80 km sortie n° 20 à Château-Thierry.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vallée_de_la_Marne_(vignoble)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vall%C3%A9e_de_la_Marne_(vignoble)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Route touristique du Champagne</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Principaux villages traversés (Vallée de la Marne Ouest)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Charly-sur-Marne
 Bonneil
 Essômes-sur-Marne
 Fossoy
@@ -531,18 +613,86 @@
 Troissy
 Passy-Grigny
 Vandières
-Châtillon sur Marne
-Points d'intérêts touristiques ouverts au public
-Maison natale de Jean de La Fontaine
+Châtillon sur Marne</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vallée_de_la_Marne_(vignoble)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vall%C3%A9e_de_la_Marne_(vignoble)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Route touristique du Champagne</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Points d'intérêts touristiques ouverts au public</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Maison natale de Jean de La Fontaine
 Château-Thierry
 Château de Condé à Condé-en-Brie
 Abbaye cistercienne d'Essômes-sur-Marne
 Dormans et son mémorial
 Verneuil : pont de la Semoigne et église remarquable du XIIe et XIIIe siècle
 Les très nombreux lavoirs dans chacune des communes
-Châtillon-sur-Marne et sa statue du pape Urbain II
-Caves de champagne ouvertes au public
-Caves Champagne Pannier, à Château-Thierry.
+Châtillon-sur-Marne et sa statue du pape Urbain II</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vallée_de_la_Marne_(vignoble)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vall%C3%A9e_de_la_Marne_(vignoble)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Route touristique du Champagne</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caves de champagne ouvertes au public</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Caves Champagne Pannier, à Château-Thierry.
 Caves Meteyer, à Trélou-sur-Marne, avec un musée de la vigne et du champagne.
 Caves Sourdet-Diot à La Chapelle-Monthodon, avec audiovisuel sur le champagne.
 Caves Legouge-Copin à Verneuil.
